--- a/dist/DIJKSTRA.xlsx
+++ b/dist/DIJKSTRA.xlsx
@@ -746,7 +746,7 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="I1" sqref="I1:S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
